--- a/SuperTask.Site/中小学事业部项目列表整理（20190212）.xlsx
+++ b/SuperTask.Site/中小学事业部项目列表整理（20190212）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimmyPoor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\教软公司项目\SuperTask\SuperTask.Site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753A6344-5190-4632-B3B7-3F2E05F485C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A24227-479B-4F06-98DB-CA1E7AED64E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="105" windowWidth="25725" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11085" yWindow="4410" windowWidth="35895" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="延续项目列表" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="旧项目整理（不包含延续项目）" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'旧项目整理（不包含延续项目）'!$A$1:$E$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">延续项目整理!$B$1:$B$44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="352">
   <si>
     <t>立项编号</t>
   </si>
@@ -381,108 +382,16 @@
     <t>陈彦霖</t>
   </si>
   <si>
-    <r>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>浦东幼儿园综合信息管理平台</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>静安区信息技术应用能力提升工程培训</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年上海市基础教育学籍异动业务宣传资料设计、印刷与配送服务</t>
-    </r>
-  </si>
-  <si>
-    <t>金山区幼儿园学籍系统</t>
-  </si>
-  <si>
     <t>部门新闻报送工作</t>
   </si>
   <si>
-    <r>
-      <t>教研室</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号楼弱电布线工程</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年上海市基础教育学籍业务指导宣传资料设计、印刷与配送服务</t>
-    </r>
-  </si>
-  <si>
     <t>周熠辉</t>
   </si>
   <si>
-    <t>教育工会桌面终端设备维护</t>
-  </si>
-  <si>
     <t>郑华超</t>
   </si>
   <si>
     <t>季炜</t>
-  </si>
-  <si>
-    <t>慕课运维支持服务项目</t>
   </si>
   <si>
     <r>
@@ -514,47 +423,10 @@
     <t>上海市教育委员会教学研究室惠普扫描仪工作站租赁服务</t>
   </si>
   <si>
-    <t>虹口区教师专业人才梯队建设管理平台二期</t>
-  </si>
-  <si>
-    <t>上海市中小幼教师信息技术应用能力提升工程全员培训支持服务采购需求</t>
-  </si>
-  <si>
     <t>学生成长数据汇聚平台</t>
   </si>
   <si>
     <t>长三角优质教育资源网升级及运维服务</t>
-  </si>
-  <si>
-    <t>上海市宝山区行知实验幼儿园网站系统建设</t>
-  </si>
-  <si>
-    <r>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年义务教育招生业务支持及综合服务</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>虹口区中小学生信息管理平台</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <r>
@@ -572,21 +444,12 @@
     </r>
   </si>
   <si>
-    <t>上海市中小幼教师信息技术应用能力提升专项培训及实践应用支持服务</t>
-  </si>
-  <si>
-    <t>学科德育数字化资源再加工服务</t>
-  </si>
-  <si>
     <t>柏方飞</t>
   </si>
   <si>
     <t>计划中</t>
   </si>
   <si>
-    <t>上海市特教信息化公共服务平台功能升级及运维服务</t>
-  </si>
-  <si>
     <t>上海市普通高中学生综合素质评价信息管理系统综合门户</t>
   </si>
   <si>
@@ -696,12 +559,6 @@
   </si>
   <si>
     <t>LX1180645</t>
-  </si>
-  <si>
-    <t>LX1180632</t>
-  </si>
-  <si>
-    <t>LX201710608</t>
   </si>
   <si>
     <t>LX2180642</t>
@@ -1303,38 +1160,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>数据世界</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品研发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部门项目管理平台升级改造(产品研发)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1347,22 +1172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年特教平台运维服务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上海市实验学校综合素质评价系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1372,30 +1181,6 @@
   </si>
   <si>
     <t>宝山行知实验幼儿园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年中小学生学籍业务支持及综合服务</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1485,22 +1270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年度电教馆官网维护</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LXJR201710618</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1545,22 +1314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年上海市中小幼教师信息技术应用能力提升培训课程资源建设</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1590,20 +1343,6 @@
   </si>
   <si>
     <t>2018年上海市学籍系统跨省异动 业务数据处理与培训服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>六一小学iPad平板电脑租赁</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1701,10 +1440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虹口区信息技术应用能力提升工程培训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>上海基础教育统一身份认证系统运维项目（</t>
     </r>
@@ -1730,22 +1465,6 @@
   </si>
   <si>
     <r>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宝山区信息技术应用能力提升工程培训</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>2019</t>
     </r>
     <r>
@@ -1762,19 +1481,60 @@
   </si>
   <si>
     <r>
-      <t>2018</t>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高中学生综合素质评价信息管理系统综合服务与支持项目（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2018-2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LX2180640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>年上海市义务教育入学报名系统运维</t>
-    </r>
+      <t>年特教平台运维服务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1791,41 +1551,321 @@
       </rPr>
       <t>长三角区域教育信息化应用推进</t>
     </r>
-  </si>
-  <si>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LX201710608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市中小幼教师信息技术应用能力提升工程全员培训支持服务采购需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市特教信息化公共服务平台功能升级及运维服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科德育数字化资源再加工服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
     <r>
       <rPr>
+        <i/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>高中学生综合素质评价信息管理系统综合服务与支持项目（</t>
+      <t xml:space="preserve">年中小学生学籍业务支持及综合服务 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浦东幼儿园综合信息管理平台</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>静安区信息技术应用能力提升工程培训</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年上海市基础教育学籍异动业务宣传资料设计、印刷与配送服务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育工会桌面终端设备维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>教研室</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
-      <t>2018-2019</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LX2180640</t>
+      <t>号楼弱电布线工程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周熠辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣昶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山区幼儿园学籍系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年度电教馆官网维护</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年上海市基础教育学籍业务指导宣传资料设计、印刷与配送服务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>虹口区中小学生信息管理平台</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市宝山区行知实验幼儿园网站系统建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶俊威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年义务教育招生业务支持及综合服务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹口区教师专业人才梯队建设管理平台二期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈翎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>数据世界</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(产品研发)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敬维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市中小幼教师信息技术应用能力提升专项培训及实践应用支持服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>宝山区信息技术应用能力提升工程培训</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕课运维支持服务项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹口区信息技术应用能力提升工程培训</t>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六一小学iPad平板电脑租赁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年上海市义务教育入学报名系统运维</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪滇远程教育技术支持服务项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年上海市中小幼教师信息技术应用能力提升培训课程资源建设</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1833,7 +1873,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1944,6 +1984,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1992,7 +2048,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2008,13 +2064,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="解释性文本" xfId="4" builtinId="53"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -2318,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2527,7 +2589,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2811,7 +2873,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2871,7 +2933,7 @@
         <v>14</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3223,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C4C6D8-9409-4A79-AEB4-C2DB64BAA3A4}">
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3240,7 +3302,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>107</v>
@@ -3263,19 +3325,19 @@
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F2" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3289,10 +3351,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3306,10 +3368,10 @@
         <v>15</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3323,15 +3385,15 @@
         <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -3340,10 +3402,10 @@
         <v>15</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3357,10 +3419,10 @@
         <v>35</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -3368,16 +3430,16 @@
         <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F8" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3391,10 +3453,10 @@
         <v>15</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F9" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3408,10 +3470,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F10" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3425,10 +3487,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F11" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3442,10 +3504,10 @@
         <v>35</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F12" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3459,27 +3521,27 @@
         <v>35</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F13" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F14" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3490,13 +3552,13 @@
         <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F15" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3507,13 +3569,13 @@
         <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F16" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3527,10 +3589,10 @@
         <v>15</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F17" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3541,13 +3603,13 @@
         <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F18" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3561,10 +3623,10 @@
         <v>73</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F19" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3578,75 +3640,75 @@
         <v>73</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F20" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B21" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="F21" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="B22" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
-        <v>306</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="F22" t="s">
-        <v>291</v>
+      <c r="E22" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="F23" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>76</v>
@@ -3658,310 +3720,310 @@
         <v>20</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F24" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F25" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F26" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D27" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F27" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C28" t="s">
-        <v>315</v>
+      <c r="C28" s="13" t="s">
+        <v>348</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F29" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="D30" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F30" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F32" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F33" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="D34" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F34" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F35" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F36" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D37" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F37" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="D38" t="s">
         <v>35</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F38" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="D39" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F39" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
@@ -4037,10 +4099,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D640665-316E-4163-A965-E840C2C62ACC}">
-  <dimension ref="A1:E106"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B112" sqref="B112:B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4072,51 +4135,50 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>291</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
@@ -4125,27 +4187,27 @@
         <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" t="s">
-        <v>290</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>113</v>
@@ -4154,13 +4216,13 @@
         <v>114</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>20</v>
@@ -4169,13 +4231,13 @@
         <v>114</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>90</v>
@@ -4184,190 +4246,190 @@
         <v>114</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D15" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>312</v>
+      <c r="D16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>124</v>
+        <v>328</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>312</v>
+      <c r="D20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>121</v>
+        <v>329</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
@@ -4376,126 +4438,126 @@
         <v>114</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C22" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>312</v>
+      <c r="D24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>312</v>
+      <c r="C28" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
@@ -4504,30 +4566,30 @@
         <v>114</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="2" t="s">
-        <v>127</v>
+        <v>345</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
@@ -4536,98 +4598,97 @@
         <v>114</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C32" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="E32" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D34" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D35" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>312</v>
+      <c r="D36" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
@@ -4636,1039 +4697,1051 @@
         <v>114</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="D38" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="D39" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="D40" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>312</v>
+      <c r="D41" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>35</v>
+        <v>340</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="D44" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>143</v>
+        <v>322</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C100" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E100" s="6"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="C101" s="6" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E106" s="6"/>
     </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H108" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E106" xr:uid="{E53EDBF0-F3BA-4014-B8DC-BEAA23D69CB3}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="执行中"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/SuperTask.Site/中小学事业部项目列表整理（20190212）.xlsx
+++ b/SuperTask.Site/中小学事业部项目列表整理（20190212）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\教软公司项目\SuperTask\SuperTask.Site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目文件(GitLab)\SuperTask.V3\SuperTask.Site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A24227-479B-4F06-98DB-CA1E7AED64E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098AD27C-C8EF-431A-9AF0-5E7499B3F398}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11085" yWindow="4410" windowWidth="35895" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="1125" windowWidth="17130" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="延续项目列表" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'旧项目整理（不包含延续项目）'!$A$1:$E$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">延续项目整理!$B$1:$B$44</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="353">
   <si>
     <t>立项编号</t>
   </si>
@@ -351,22 +359,22 @@
   </si>
   <si>
     <t>立项编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>项目名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>项目经理</t>
   </si>
   <si>
     <t>项目状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>是否延续</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>是否可关闭</t>
@@ -394,54 +402,10 @@
     <t>季炜</t>
   </si>
   <si>
-    <r>
-      <t>教研室网络设备及日常信息化办公设备租赁项目（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年）</t>
-    </r>
-  </si>
-  <si>
-    <t>上海市长宁区教育信息中心服务器设备租赁协议</t>
-  </si>
-  <si>
-    <t>上海市教育委员会教学研究室惠普扫描仪工作站租赁服务</t>
-  </si>
-  <si>
     <t>学生成长数据汇聚平台</t>
   </si>
   <si>
     <t>长三角优质教育资源网升级及运维服务</t>
-  </si>
-  <si>
-    <r>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年专题平台客服服务</t>
-    </r>
   </si>
   <si>
     <t>柏方飞</t>
@@ -1346,10 +1310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>教研室日常信息系统网站安全保障服务（2018年-2019年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虹口区教师专业发展平台运维服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1648,30 +1608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>教研室</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号楼弱电布线工程</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周熠辉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1868,12 +1804,129 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年专题平台客服服务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市长宁区教育信息中心服务器设备租赁协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市教育委员会教学研究室惠普扫描仪工作站租赁服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>教研室</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4号楼弱电布线工程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>教研室网络设备及日常信息化办公设备租赁项目（</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018年）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教研室日常信息系统网站安全保障服务（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1896,14 +1949,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2033,7 +2078,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2041,42 +2086,37 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="解释性文本" xfId="3" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -2380,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,7 +2629,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2873,7 +2913,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2933,7 +2973,7 @@
         <v>14</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3285,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C4C6D8-9409-4A79-AEB4-C2DB64BAA3A4}">
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,7 +3342,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>107</v>
@@ -3324,24 +3364,24 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>254</v>
+      <c r="B2" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>272</v>
+      <c r="E2" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
@@ -3350,15 +3390,15 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>303</v>
+      <c r="E3" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="F3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
@@ -3367,15 +3407,15 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>272</v>
+      <c r="E4" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
@@ -3384,16 +3424,16 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>272</v>
+      <c r="E5" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>277</v>
+      <c r="B6" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -3401,15 +3441,15 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>272</v>
+      <c r="E6" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
@@ -3418,32 +3458,32 @@
       <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>272</v>
+      <c r="E7" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>228</v>
+      <c r="C8" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="D8" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>272</v>
+      <c r="E8" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C9" t="s">
@@ -3452,15 +3492,15 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>272</v>
+      <c r="E9" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C10" t="s">
@@ -3469,15 +3509,15 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>272</v>
+      <c r="E10" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C11" t="s">
@@ -3486,15 +3526,15 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>272</v>
+      <c r="E11" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
@@ -3503,15 +3543,15 @@
       <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>272</v>
+      <c r="E12" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -3520,66 +3560,66 @@
       <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>272</v>
+      <c r="E13" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>314</v>
+      <c r="B14" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="D14" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>272</v>
+      <c r="E14" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>281</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>282</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>272</v>
+        <v>278</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C17" t="s">
@@ -3588,32 +3628,32 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>272</v>
+      <c r="E17" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>287</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>272</v>
+        <v>283</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C19" t="s">
@@ -3622,15 +3662,15 @@
       <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>272</v>
+      <c r="E19" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C20" t="s">
@@ -3639,78 +3679,78 @@
       <c r="D20" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>272</v>
+      <c r="E20" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B21" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="E21" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>270</v>
+      <c r="E22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D23" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>284</v>
+      <c r="E23" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="F23" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C24" t="s">
@@ -3719,376 +3759,376 @@
       <c r="D24" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>272</v>
+      <c r="E24" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F24" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>279</v>
+      <c r="C25" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>272</v>
+      <c r="E25" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F25" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D26" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>272</v>
+      <c r="E26" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D27" t="s">
-        <v>287</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="F27" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>348</v>
+      <c r="C28" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>290</v>
+      <c r="E28" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="F28" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B29" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C29" t="s">
-        <v>292</v>
+      <c r="C29" s="9" t="s">
+        <v>352</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>290</v>
+      <c r="E29" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D30" t="s">
-        <v>281</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>290</v>
+        <v>277</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="F30" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B31" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C31" t="s">
-        <v>294</v>
+      <c r="C31" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
         <v>290</v>
-      </c>
-      <c r="F31" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" t="s">
-        <v>295</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>290</v>
+      <c r="E32" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="F32" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>290</v>
+      <c r="E33" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="F33" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C34" t="s">
+        <v>292</v>
+      </c>
+      <c r="D34" t="s">
+        <v>277</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D34" t="s">
-        <v>281</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>290</v>
+      <c r="E35" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="F35" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>290</v>
+      <c r="E36" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="F36" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D37" t="s">
-        <v>288</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="F37" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D38" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>290</v>
+      <c r="E38" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="F38" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>313</v>
+      <c r="C39" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="D39" t="s">
-        <v>288</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="F39" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
     <row r="47" spans="1:6" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="50" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="51" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="52" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="96" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="97" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="98" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="99" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="100" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="101" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="102" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="103" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="104" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="105" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="106" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="107" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="108" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="109" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="110" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="111" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="112" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="113" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="114" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="115" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="116" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="117" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="118" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="119" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="120" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="121" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="122" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="123" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="124" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="125" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="126" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="127" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="128" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="129" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="130" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="131" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="132" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="133" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="134" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="135" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="136" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="137" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="138" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="139" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="140" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="141" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="142" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="143" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="144" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="145" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="146" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="147" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="148" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="149" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="150" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="151" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
-    <row r="152" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="50" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="51" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="52" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="96" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="97" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="98" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="99" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="100" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="101" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="102" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="103" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="104" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="105" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="106" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="107" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="108" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="109" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="110" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="111" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="112" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="113" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="114" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="115" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="116" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="117" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="118" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="119" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="120" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="121" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="122" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="123" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="124" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="125" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="126" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="127" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="128" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="129" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="130" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="131" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="132" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="133" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="134" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="135" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="136" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="137" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="138" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="139" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="140" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="141" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="142" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="143" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="144" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="145" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="146" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="147" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="148" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="149" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="150" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="151" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="152" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="B1:B152" xr:uid="{8E8F6B82-4027-4F02-9BC4-043E045B2523}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4103,7 +4143,7 @@
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B112" sqref="B112:B115"/>
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4135,50 +4175,50 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>270</v>
+      <c r="D3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
@@ -4187,1551 +4227,1551 @@
         <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>269</v>
+      <c r="D6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>267</v>
+      <c r="E7" s="4" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>267</v>
+      <c r="E8" s="4" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>267</v>
+      <c r="E9" s="4" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="5" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="D64" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="C69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D93" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="D98" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="D103" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="6" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E93" s="6"/>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E94" s="6"/>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E95" s="6"/>
-    </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E96" s="6"/>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E97" s="6"/>
-    </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E98" s="6"/>
-    </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E99" s="6"/>
-    </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E100" s="6"/>
-    </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E101" s="6"/>
-    </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E102" s="6"/>
-    </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E103" s="6"/>
-    </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E104" s="6"/>
-    </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E105" s="6"/>
-    </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E106" s="6"/>
+      <c r="D106" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E106" s="5"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H108" s="4" t="s">
-        <v>347</v>
+      <c r="H108" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
